--- a/Excel/PenjualanBarang/penjualan_barang.xlsx
+++ b/Excel/PenjualanBarang/penjualan_barang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Laporan Penjualan Barang Toko AnnisaATK</t>
   </si>
@@ -41,13 +41,7 @@
     <t>Sisa Stok</t>
   </si>
   <si>
-    <t>2023-06-26 03:14:16</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>tipex</t>
+    <t>2023-07-11 16:26:46</t>
   </si>
   <si>
     <t>02</t>
@@ -56,16 +50,10 @@
     <t>Kotak Pensil</t>
   </si>
   <si>
-    <t>2023-06-25 05:47:22</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
     <t>pensil</t>
-  </si>
-  <si>
-    <t>2023-06-25 04:49:09</t>
   </si>
 </sst>
 </file>
@@ -445,7 +433,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:G1"/>
@@ -507,16 +495,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>11520</v>
+        <v>12000</v>
       </c>
       <c r="F3" s="2">
-        <v>23040</v>
+        <v>12000</v>
       </c>
       <c r="G3" s="2">
-        <v>308</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -530,108 +518,16 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="2">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="G4" s="2">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>24000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2100</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2100</v>
-      </c>
-      <c r="G6" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>11520</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11520</v>
-      </c>
-      <c r="G7" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>120000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1097</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
